--- a/BitPacking.xlsx
+++ b/BitPacking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronplanck/Dropbox/SIMB3 Share/Cryosphere Innovation/Product/SIMB3/Development/Custom Temp String/simb3-temp-string/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{793BB77D-597D-FE43-AE6F-C0AF85620E21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF226EB-BF66-9649-A2D2-E8EC2935659D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24280" xr2:uid="{1B5466A9-2CE0-9D48-9818-1EE54E6DE531}"/>
+    <workbookView xWindow="21020" yWindow="880" windowWidth="20100" windowHeight="24280" xr2:uid="{1B5466A9-2CE0-9D48-9818-1EE54E6DE531}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="32">
   <si>
     <t>Sensor 1</t>
   </si>
@@ -119,6 +119,18 @@
   </si>
   <si>
     <t>Byte2</t>
+  </si>
+  <si>
+    <t>LSB1</t>
+  </si>
+  <si>
+    <t>MSB1</t>
+  </si>
+  <si>
+    <t>TempBin</t>
+  </si>
+  <si>
+    <t>Combined</t>
   </si>
 </sst>
 </file>
@@ -625,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661E6457-E7E4-5745-BB54-768BE85195D8}">
-  <dimension ref="A2:AC46"/>
+  <dimension ref="A2:AC75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,6 +1609,12 @@
       <c r="A46" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
@@ -1611,6 +1629,327 @@
       </c>
       <c r="H46" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="G50" s="1">
+        <v>0</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="L55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="L57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>1</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="1">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1">
+        <v>1</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="1">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1">
+        <v>1</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="L73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="1">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="L75" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
